--- a/研究所資料夾/讀書計畫甘特圖.xlsx
+++ b/研究所資料夾/讀書計畫甘特圖.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>年次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碩一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碩二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>學期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +83,10 @@
   </si>
   <si>
     <t>撰寫畢業論文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碩一、二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,18 +167,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +228,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,8 +268,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>648300</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>610500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165150</xdr:rowOff>
     </xdr:to>
@@ -239,7 +281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1733550" y="685800"/>
-          <a:ext cx="1296000" cy="108000"/>
+          <a:ext cx="1944000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -274,16 +316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76198</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66673</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>648598</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>639073</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>155625</xdr:rowOff>
+      <xdr:rowOff>165150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -292,7 +334,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3829048" y="885825"/>
+          <a:off x="3133723" y="895350"/>
           <a:ext cx="1944000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -329,13 +371,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:colOff>66676</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>592351</xdr:colOff>
+      <xdr:colOff>597676</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>165150</xdr:rowOff>
     </xdr:to>
@@ -346,8 +388,116 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828801" y="1104900"/>
-          <a:ext cx="3888000" cy="108000"/>
+          <a:off x="1762126" y="1104900"/>
+          <a:ext cx="3960000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圓角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="1314451"/>
+          <a:ext cx="3276000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圓角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="1524001"/>
+          <a:ext cx="1295400" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -383,121 +533,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>639075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="圓角矩形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3133725" y="1314451"/>
-          <a:ext cx="1944000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>165151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="圓角矩形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1724025" y="1524001"/>
-          <a:ext cx="1295400" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>639075</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>629550</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>155625</xdr:rowOff>
     </xdr:to>
@@ -508,7 +550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3819525" y="1933575"/>
+          <a:off x="3124200" y="1933575"/>
           <a:ext cx="1944000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -632,6 +674,115 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="190500" y="2438400"/>
+          <a:ext cx="5819775" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="圓角矩形 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="1743075"/>
+          <a:ext cx="3276000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="圖片 135"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7181850" y="838200"/>
           <a:ext cx="5819775" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -942,11 +1093,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -958,128 +1109,126 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>